--- a/public/storage/download/student.xlsx
+++ b/public/storage/download/student.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="6960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="60">
   <si>
     <t>男</t>
   </si>
   <si>
-    <t>挂学籍号</t>
-  </si>
-  <si>
     <t>2017(4)</t>
   </si>
   <si>
@@ -29,9 +26,6 @@
   </si>
   <si>
     <t>女</t>
-  </si>
-  <si>
-    <t>旁听</t>
   </si>
   <si>
     <t>2019(3)</t>
@@ -202,35 +196,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>身份证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在校</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在籍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>班级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中招序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,1057 +546,730 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="A1:K1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="10.875" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="1" max="1" width="9.75" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>170434</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>190318</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>190641</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>190640</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>190639</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>190638</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>190637</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>190636</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>190635</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>190634</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>190633</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>190632</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>190631</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="I14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>190630</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
         <v>0</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="I15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>190629</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="I16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>190628</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="I17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>190627</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
         <v>0</v>
       </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="I18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>190626</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="I19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>190625</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
       </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="I20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>190624</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="I21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>190623</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
       </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="I22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>190622</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="I23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>190621</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
         <v>0</v>
       </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="I24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>190616</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="I25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>190615</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="I26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>190614</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="I27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>190613</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="I28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>190612</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="I29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>190611</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="I30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>190610</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="I31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>190609</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="I32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>190608</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="I33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>190607</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="I34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>190606</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="I35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>190605</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="I36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>190604</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="I37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>190603</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="I38" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>190602</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="I39" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>190601</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="I40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>190540</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
         <v>0</v>
       </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="I41" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>190539</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
         <v>0</v>
       </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="I42" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>190538</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
         <v>0</v>
       </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="I43" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>190537</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
         <v>0</v>
       </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="I44" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>190536</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
         <v>0</v>
       </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="I45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>190535</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
         <v>0</v>
       </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="I46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>190534</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
         <v>0</v>
       </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="I47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>190533</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C48" t="s">
         <v>0</v>
       </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="I48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>190532</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C49" t="s">
         <v>0</v>
       </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="I49" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>190531</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C50" t="s">
         <v>0</v>
       </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="I50" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>190530</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
         <v>0</v>
       </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="I51" t="s">
-        <v>46</v>
+      <c r="D51" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
